--- a/text_classification_hatespeech/Final_Results.xlsx
+++ b/text_classification_hatespeech/Final_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34CF98-D398-E844-B3ED-25C192E1157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D74139-8E41-9A44-8B2E-75D42158BA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="7080" windowWidth="27460" windowHeight="14360" xr2:uid="{2C45E5D9-BF57-9B41-9558-79B5D5089EDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AutoML（DAI）によるTFIDFアプローチ</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>rinna/japanese-gpt-neox-3.6b-instruction-ppoのEpoch=2の平均値が0.74358。最大値が0.76923</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pytorch BERTモデル Finetuning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tohoku-nlp/bert-large-japanese-v2, studio-ousia/luke-japanese-large-liteで複数回実施。閾値=0.5で0.6後半。Best閾値を採用すると、0.7超えくらいだと考えられる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77096A4A-6969-0246-BDCF-72BC0BE1E08C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -575,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -586,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -597,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -608,9 +616,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
